--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA87EC9-7DF9-4A3C-BB3D-37E317D99E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DE370-F58C-491A-BB22-FADDA4BADA73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DE370-F58C-491A-BB22-FADDA4BADA73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E940143-BC3C-42B7-B056-D8F53C9FD948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="5910" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="HHLR" sheetId="11" r:id="rId1"/>

--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E940143-BC3C-42B7-B056-D8F53C9FD948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF8B49-0F18-4707-8A60-B55AA20AE9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1035" yWindow="4035" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="HHLR" sheetId="11" r:id="rId1"/>

--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF8B49-0F18-4707-8A60-B55AA20AE9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364225D3-D2EF-4CB3-BDFD-8B65381267A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="4035" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="HHLR" sheetId="11" r:id="rId1"/>
     <sheet name="ILLIQ" sheetId="6" r:id="rId2"/>
-    <sheet name="ILLIQ Covariates" sheetId="8" r:id="rId3"/>
+    <sheet name="ILLIQC" sheetId="8" r:id="rId3"/>
     <sheet name="RIS" sheetId="12" r:id="rId4"/>
     <sheet name="TR" sheetId="10" r:id="rId5"/>
     <sheet name="VR" sheetId="9" r:id="rId6"/>

--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364225D3-D2EF-4CB3-BDFD-8B65381267A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FDA689-CADA-46BA-981F-5DBC2B43A7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FDA689-CADA-46BA-981F-5DBC2B43A7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4724DC85-E429-4CB1-8A94-CF3DF2D97FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4724DC85-E429-4CB1-8A94-CF3DF2D97FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786704AD-8C31-4DCD-8321-B4925FF038F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786704AD-8C31-4DCD-8321-B4925FF038F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE950188-80D9-4316-AD18-C01F7755D36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="HHLR" sheetId="11" r:id="rId1"/>

--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE950188-80D9-4316-AD18-C01F7755D36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D61157-6D59-429E-8557-555E8A74FF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="HHLR" sheetId="11" r:id="rId1"/>

--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D61157-6D59-429E-8557-555E8A74FF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9637F7E9-F00B-46E3-B8C9-3F79A462AA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="HHLR" sheetId="11" r:id="rId1"/>

--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9637F7E9-F00B-46E3-B8C9-3F79A462AA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D52B1-6FA8-4437-9B9C-31FBE32F4139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateLiquidity.xlsx
+++ b/Templates/TemplateLiquidity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D52B1-6FA8-4437-9B9C-31FBE32F4139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEFD749-529E-424B-883B-FFF6AB9B92B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
